--- a/data/pca/factorExposure/factorExposure_2019-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1270785381151052</v>
+        <v>0.0790579046100673</v>
       </c>
       <c r="C2">
-        <v>-0.02058060798826837</v>
+        <v>0.01659329594182383</v>
       </c>
       <c r="D2">
-        <v>0.03114112005594902</v>
+        <v>-0.04196383382624161</v>
       </c>
       <c r="E2">
-        <v>0.09342803940880604</v>
+        <v>-0.1092736154569897</v>
       </c>
       <c r="F2">
-        <v>0.0943188511533754</v>
+        <v>0.08519118323973247</v>
       </c>
       <c r="G2">
-        <v>-0.1193963177346478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08985103532780729</v>
+      </c>
+      <c r="H2">
+        <v>0.08520259311995725</v>
+      </c>
+      <c r="I2">
+        <v>0.02336338677470059</v>
+      </c>
+      <c r="J2">
+        <v>-0.03279075801628548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2170390764567718</v>
+        <v>0.1637693082919758</v>
       </c>
       <c r="C3">
-        <v>0.08275150318716613</v>
+        <v>0.08302893164059552</v>
       </c>
       <c r="D3">
-        <v>-0.05460923944227575</v>
+        <v>0.02896732767653748</v>
       </c>
       <c r="E3">
-        <v>0.3142453216838668</v>
+        <v>-0.2445937037514604</v>
       </c>
       <c r="F3">
-        <v>0.02571810489491502</v>
+        <v>0.2999627298159394</v>
       </c>
       <c r="G3">
-        <v>-0.3645892425097789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.02147164653467927</v>
+      </c>
+      <c r="H3">
+        <v>0.2852356778592856</v>
+      </c>
+      <c r="I3">
+        <v>0.1423061457714159</v>
+      </c>
+      <c r="J3">
+        <v>-0.3586840823566063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09972794378891613</v>
+        <v>0.07347239715438535</v>
       </c>
       <c r="C4">
-        <v>0.0225308581739082</v>
+        <v>0.03459691213834726</v>
       </c>
       <c r="D4">
-        <v>0.01229971423782839</v>
+        <v>-0.02593709398683026</v>
       </c>
       <c r="E4">
-        <v>0.07427497712869734</v>
+        <v>-0.03561322546497883</v>
       </c>
       <c r="F4">
-        <v>0.05340488144453747</v>
+        <v>0.08889004060501739</v>
       </c>
       <c r="G4">
-        <v>-0.03705086405660879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03611698585037133</v>
+      </c>
+      <c r="H4">
+        <v>0.0324610375748398</v>
+      </c>
+      <c r="I4">
+        <v>0.02704811439538105</v>
+      </c>
+      <c r="J4">
+        <v>-0.04324758327732873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01371488279403889</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003094208461929861</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0002665919074933195</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0033334687929915</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003418991253098002</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0188725140929023</v>
+      </c>
+      <c r="H6">
+        <v>0.001982499419626028</v>
+      </c>
+      <c r="I6">
+        <v>-0.002690250370497134</v>
+      </c>
+      <c r="J6">
+        <v>0.001067885579596953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04342031502250009</v>
+        <v>0.03386621688067877</v>
       </c>
       <c r="C7">
-        <v>0.005252112092644833</v>
+        <v>0.01817190189852072</v>
       </c>
       <c r="D7">
-        <v>0.02758919146042969</v>
+        <v>-0.01965399473223396</v>
       </c>
       <c r="E7">
-        <v>0.08396355309534963</v>
+        <v>-0.03385838356903914</v>
       </c>
       <c r="F7">
-        <v>-0.0326069106403238</v>
+        <v>0.05083566018119723</v>
       </c>
       <c r="G7">
-        <v>-0.01124872170507014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01378824926065978</v>
+      </c>
+      <c r="H7">
+        <v>0.04724440484982396</v>
+      </c>
+      <c r="I7">
+        <v>0.001297002045046371</v>
+      </c>
+      <c r="J7">
+        <v>-0.0100796708198944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04429715557574312</v>
+        <v>0.03269365543093037</v>
       </c>
       <c r="C8">
-        <v>0.03704137931577523</v>
+        <v>0.03836072891884692</v>
       </c>
       <c r="D8">
-        <v>-0.002572735927891538</v>
+        <v>-0.008976892812075246</v>
       </c>
       <c r="E8">
-        <v>0.06952155794874554</v>
+        <v>-0.03631273753754447</v>
       </c>
       <c r="F8">
-        <v>0.001489771297322988</v>
+        <v>0.07744037339501017</v>
       </c>
       <c r="G8">
-        <v>-0.05411583990198337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0004944069106369799</v>
+      </c>
+      <c r="H8">
+        <v>0.05579659561301113</v>
+      </c>
+      <c r="I8">
+        <v>0.02753875668832753</v>
+      </c>
+      <c r="J8">
+        <v>-0.0378652685923929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08647939526484787</v>
+        <v>0.06259162531039174</v>
       </c>
       <c r="C9">
-        <v>0.0255052125337513</v>
+        <v>0.03530981855269069</v>
       </c>
       <c r="D9">
-        <v>0.02419124498021358</v>
+        <v>-0.02699871478989429</v>
       </c>
       <c r="E9">
-        <v>0.06837992799292404</v>
+        <v>-0.03374122450253864</v>
       </c>
       <c r="F9">
-        <v>0.03468385381157144</v>
+        <v>0.08927723154095064</v>
       </c>
       <c r="G9">
-        <v>-0.03481330432343959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02696838930233452</v>
+      </c>
+      <c r="H9">
+        <v>0.02862419352290253</v>
+      </c>
+      <c r="I9">
+        <v>0.00820003528358948</v>
+      </c>
+      <c r="J9">
+        <v>-0.006098348342338155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01576696184053366</v>
+        <v>0.01031090381680501</v>
       </c>
       <c r="C10">
-        <v>-0.1615240494339835</v>
+        <v>-0.1601966754142075</v>
       </c>
       <c r="D10">
-        <v>-0.01460362092365179</v>
+        <v>0.01464362921387687</v>
       </c>
       <c r="E10">
-        <v>0.05072182025220461</v>
+        <v>-0.05201393363991923</v>
       </c>
       <c r="F10">
-        <v>0.008500671254411259</v>
+        <v>0.03374961181234978</v>
       </c>
       <c r="G10">
-        <v>0.001984020479129462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02051748489082902</v>
+      </c>
+      <c r="H10">
+        <v>-0.00504641451670297</v>
+      </c>
+      <c r="I10">
+        <v>0.119635102512057</v>
+      </c>
+      <c r="J10">
+        <v>-0.01024124152500616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05773528082825163</v>
+        <v>0.0487606495019941</v>
       </c>
       <c r="C11">
-        <v>0.003632416151912203</v>
+        <v>0.02147131629939347</v>
       </c>
       <c r="D11">
-        <v>-0.01097926846193236</v>
+        <v>-0.006397485287660978</v>
       </c>
       <c r="E11">
-        <v>0.04054294567400223</v>
+        <v>-0.03862437290162963</v>
       </c>
       <c r="F11">
-        <v>0.006929232646020343</v>
+        <v>0.02388743653453901</v>
       </c>
       <c r="G11">
-        <v>0.01811705942555792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00148287453209399</v>
+      </c>
+      <c r="H11">
+        <v>0.01443404556854736</v>
+      </c>
+      <c r="I11">
+        <v>-0.01677219903256966</v>
+      </c>
+      <c r="J11">
+        <v>-0.009338396144173835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04330217711948338</v>
+        <v>0.04398094933255458</v>
       </c>
       <c r="C12">
-        <v>0.01047696620769032</v>
+        <v>0.02219587564804943</v>
       </c>
       <c r="D12">
-        <v>-0.007792199505471581</v>
+        <v>-0.006118514338238519</v>
       </c>
       <c r="E12">
-        <v>0.03410737676676279</v>
+        <v>-0.01565426198829403</v>
       </c>
       <c r="F12">
-        <v>0.003411812823315593</v>
+        <v>0.02104240959511077</v>
       </c>
       <c r="G12">
-        <v>-0.002242057351472017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004271285554634126</v>
+      </c>
+      <c r="H12">
+        <v>0.01141371221513449</v>
+      </c>
+      <c r="I12">
+        <v>-0.01809882909814231</v>
+      </c>
+      <c r="J12">
+        <v>-0.003086856466842385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06098905604515678</v>
+        <v>0.04117610377006401</v>
       </c>
       <c r="C13">
-        <v>0.01561414042584008</v>
+        <v>0.02228579544974568</v>
       </c>
       <c r="D13">
-        <v>-0.01636827859634464</v>
+        <v>-0.008448125046961493</v>
       </c>
       <c r="E13">
-        <v>0.1071206461693969</v>
+        <v>-0.08157509693849864</v>
       </c>
       <c r="F13">
-        <v>0.02082677821979334</v>
+        <v>0.06579794782100512</v>
       </c>
       <c r="G13">
-        <v>-0.0461267899549614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007312542471978201</v>
+      </c>
+      <c r="H13">
+        <v>0.06036157514763661</v>
+      </c>
+      <c r="I13">
+        <v>0.009562419726042741</v>
+      </c>
+      <c r="J13">
+        <v>-0.02221897844053702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03853778750063486</v>
+        <v>0.02807348668689644</v>
       </c>
       <c r="C14">
-        <v>0.006671629028410542</v>
+        <v>0.01477224079180827</v>
       </c>
       <c r="D14">
-        <v>0.0195782013501211</v>
+        <v>-0.02358975614403842</v>
       </c>
       <c r="E14">
-        <v>0.02069974317666036</v>
+        <v>-0.01852939723989591</v>
       </c>
       <c r="F14">
-        <v>-0.003778711339082546</v>
+        <v>0.03635660135761439</v>
       </c>
       <c r="G14">
-        <v>-0.03603674827089676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01515071976065848</v>
+      </c>
+      <c r="H14">
+        <v>0.05801907550969675</v>
+      </c>
+      <c r="I14">
+        <v>0.01719184498103895</v>
+      </c>
+      <c r="J14">
+        <v>0.008122404713264766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04892222967527128</v>
+        <v>0.0419900937540587</v>
       </c>
       <c r="C16">
-        <v>0.02099476975262931</v>
+        <v>0.0290247129219239</v>
       </c>
       <c r="D16">
-        <v>-0.01915020037808861</v>
+        <v>-0.001148885358224187</v>
       </c>
       <c r="E16">
-        <v>0.03802352273863941</v>
+        <v>-0.03194605907509986</v>
       </c>
       <c r="F16">
-        <v>0.001499982795164876</v>
+        <v>0.02308159177878266</v>
       </c>
       <c r="G16">
-        <v>0.01307374074355916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006997959636746239</v>
+      </c>
+      <c r="H16">
+        <v>0.01583804186473625</v>
+      </c>
+      <c r="I16">
+        <v>-0.01538013434433609</v>
+      </c>
+      <c r="J16">
+        <v>-0.008530319877720896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05359348354163398</v>
+        <v>0.04548262102369909</v>
       </c>
       <c r="C19">
-        <v>0.02683547633391185</v>
+        <v>0.03545952803324815</v>
       </c>
       <c r="D19">
-        <v>-0.002094993853054575</v>
+        <v>-0.01027751337736185</v>
       </c>
       <c r="E19">
-        <v>0.07776566564758439</v>
+        <v>-0.0606077513901853</v>
       </c>
       <c r="F19">
-        <v>-0.002741847853307992</v>
+        <v>0.06881949963624613</v>
       </c>
       <c r="G19">
-        <v>-0.06258287761853397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.005194753778380986</v>
+      </c>
+      <c r="H19">
+        <v>0.086444479325456</v>
+      </c>
+      <c r="I19">
+        <v>0.0365639568183189</v>
+      </c>
+      <c r="J19">
+        <v>-0.01645173192115793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03846722043458347</v>
+        <v>0.01916068092028833</v>
       </c>
       <c r="C20">
-        <v>0.03340061395098853</v>
+        <v>0.03357449631758045</v>
       </c>
       <c r="D20">
-        <v>0.006956496424497187</v>
+        <v>-0.01647598358720484</v>
       </c>
       <c r="E20">
-        <v>0.06700767697798957</v>
+        <v>-0.03962137387547817</v>
       </c>
       <c r="F20">
-        <v>-0.01389987997790696</v>
+        <v>0.06034249852486855</v>
       </c>
       <c r="G20">
-        <v>-0.04197650209368592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01086520477877913</v>
+      </c>
+      <c r="H20">
+        <v>0.07582009563215046</v>
+      </c>
+      <c r="I20">
+        <v>0.01416593358509758</v>
+      </c>
+      <c r="J20">
+        <v>-0.04732314981204038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04016512435798259</v>
+        <v>0.01873204531672934</v>
       </c>
       <c r="C21">
-        <v>0.01560151350006058</v>
+        <v>0.02507216300962693</v>
       </c>
       <c r="D21">
-        <v>-0.01277878272430832</v>
+        <v>0.001746941185920076</v>
       </c>
       <c r="E21">
-        <v>0.08345164916318144</v>
+        <v>-0.04322648299235183</v>
       </c>
       <c r="F21">
-        <v>0.04217754079265466</v>
+        <v>0.06843434048228442</v>
       </c>
       <c r="G21">
-        <v>-0.04097816408656493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02049555032802338</v>
+      </c>
+      <c r="H21">
+        <v>0.0427169122600784</v>
+      </c>
+      <c r="I21">
+        <v>-0.005704424773398168</v>
+      </c>
+      <c r="J21">
+        <v>0.01427285763434723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04838572763747892</v>
+        <v>0.04150410012479192</v>
       </c>
       <c r="C24">
-        <v>0.01214210011187877</v>
+        <v>0.01918121073371964</v>
       </c>
       <c r="D24">
-        <v>-0.006835983678607935</v>
+        <v>-0.006591511807462242</v>
       </c>
       <c r="E24">
-        <v>0.04825552140672371</v>
+        <v>-0.03442422896896687</v>
       </c>
       <c r="F24">
-        <v>0.003986567081409695</v>
+        <v>0.02793449359050256</v>
       </c>
       <c r="G24">
-        <v>0.007440109305757001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0103068917692718</v>
+      </c>
+      <c r="H24">
+        <v>0.01545622759648504</v>
+      </c>
+      <c r="I24">
+        <v>-0.01331993577606485</v>
+      </c>
+      <c r="J24">
+        <v>-0.01719290745836948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0496037994448622</v>
+        <v>0.04263500941686484</v>
       </c>
       <c r="C25">
-        <v>0.00384843270273738</v>
+        <v>0.01992084724713155</v>
       </c>
       <c r="D25">
-        <v>-0.01021863719468981</v>
+        <v>-0.003783863401752751</v>
       </c>
       <c r="E25">
-        <v>0.04458256248504839</v>
+        <v>-0.0366394631424652</v>
       </c>
       <c r="F25">
-        <v>0.01022189019494713</v>
+        <v>0.03255405096785721</v>
       </c>
       <c r="G25">
-        <v>0.01305170791090973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002842981985074111</v>
+      </c>
+      <c r="H25">
+        <v>0.009104567504221901</v>
+      </c>
+      <c r="I25">
+        <v>-0.01614680981698214</v>
+      </c>
+      <c r="J25">
+        <v>-0.006048542928956685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.006189037138121306</v>
+        <v>0.01207520655877082</v>
       </c>
       <c r="C26">
-        <v>0.01622768310864892</v>
+        <v>0.01658168871445259</v>
       </c>
       <c r="D26">
-        <v>0.004235915840957269</v>
+        <v>0.0008836762259661915</v>
       </c>
       <c r="E26">
-        <v>0.04993101272606265</v>
+        <v>-0.04362173297060457</v>
       </c>
       <c r="F26">
-        <v>0.01927715369366809</v>
+        <v>0.03120391507606573</v>
       </c>
       <c r="G26">
-        <v>-0.0134961004550573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008352422101726783</v>
+      </c>
+      <c r="H26">
+        <v>0.03751784616607232</v>
+      </c>
+      <c r="I26">
+        <v>-0.00534727810437455</v>
+      </c>
+      <c r="J26">
+        <v>-0.01188688045258312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1132950638253331</v>
+        <v>0.08638178109806793</v>
       </c>
       <c r="C27">
-        <v>0.01543045209333452</v>
+        <v>0.02732641151016667</v>
       </c>
       <c r="D27">
-        <v>0.00972772721972393</v>
+        <v>-0.03012465446955768</v>
       </c>
       <c r="E27">
-        <v>0.1111115233168269</v>
+        <v>-0.04590135010344454</v>
       </c>
       <c r="F27">
-        <v>0.02010217511602931</v>
+        <v>0.07460503264425147</v>
       </c>
       <c r="G27">
-        <v>0.006730699462324278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.002357262521248798</v>
+      </c>
+      <c r="H27">
+        <v>0.01011222077263262</v>
+      </c>
+      <c r="I27">
+        <v>0.003277848264657008</v>
+      </c>
+      <c r="J27">
+        <v>-0.02813628380143953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01515647395887299</v>
+        <v>0.02455627198675729</v>
       </c>
       <c r="C28">
-        <v>-0.2411584255321811</v>
+        <v>-0.232684318569834</v>
       </c>
       <c r="D28">
-        <v>-0.02556282092109779</v>
+        <v>0.02200667674077115</v>
       </c>
       <c r="E28">
-        <v>0.02475358606510372</v>
+        <v>-0.04136264483770986</v>
       </c>
       <c r="F28">
-        <v>0.008218627454437313</v>
+        <v>0.02799563455473354</v>
       </c>
       <c r="G28">
-        <v>0.02053454541820805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02476127338066377</v>
+      </c>
+      <c r="H28">
+        <v>-0.02726129278524526</v>
+      </c>
+      <c r="I28">
+        <v>0.16502404158769</v>
+      </c>
+      <c r="J28">
+        <v>-0.02609725994232418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02119627260840307</v>
+        <v>0.01941008383171502</v>
       </c>
       <c r="C29">
-        <v>0.0168849604571013</v>
+        <v>0.01860262881159416</v>
       </c>
       <c r="D29">
-        <v>0.02203886860391507</v>
+        <v>-0.02213962225599857</v>
       </c>
       <c r="E29">
-        <v>0.029856191564016</v>
+        <v>-0.01419656056148688</v>
       </c>
       <c r="F29">
-        <v>0.008785519354219741</v>
+        <v>0.04094087295238076</v>
       </c>
       <c r="G29">
-        <v>-0.03517790080204856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01542116870658071</v>
+      </c>
+      <c r="H29">
+        <v>0.05670674985441619</v>
+      </c>
+      <c r="I29">
+        <v>0.007533630571682145</v>
+      </c>
+      <c r="J29">
+        <v>0.020248306982258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1056122962479955</v>
+        <v>0.09898680803775964</v>
       </c>
       <c r="C30">
-        <v>0.008908105032032191</v>
+        <v>0.0360996707954977</v>
       </c>
       <c r="D30">
-        <v>0.007335421002605451</v>
+        <v>-0.03294022451369766</v>
       </c>
       <c r="E30">
-        <v>0.1255771928268535</v>
+        <v>-0.08915646137523335</v>
       </c>
       <c r="F30">
-        <v>0.03015789780779848</v>
+        <v>0.07057540685897755</v>
       </c>
       <c r="G30">
-        <v>0.07389187997668267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01455795150816245</v>
+      </c>
+      <c r="H30">
+        <v>0.01251972376875783</v>
+      </c>
+      <c r="I30">
+        <v>-0.03114060432594036</v>
+      </c>
+      <c r="J30">
+        <v>0.006080892375109099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.0568107451425674</v>
+        <v>0.05949713514447316</v>
       </c>
       <c r="C31">
-        <v>0.009930394500546572</v>
+        <v>0.01741918013204418</v>
       </c>
       <c r="D31">
-        <v>0.01980184798434177</v>
+        <v>-0.01972422916741493</v>
       </c>
       <c r="E31">
-        <v>-0.02059742219551839</v>
+        <v>-0.01198026783820697</v>
       </c>
       <c r="F31">
-        <v>0.005018152228781212</v>
+        <v>-0.005652298034265276</v>
       </c>
       <c r="G31">
-        <v>-0.00765416204559475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03438441406319966</v>
+      </c>
+      <c r="H31">
+        <v>0.04805405893540916</v>
+      </c>
+      <c r="I31">
+        <v>0.01394305495170783</v>
+      </c>
+      <c r="J31">
+        <v>0.01986772029782273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0703981414229069</v>
+        <v>0.04765735211116864</v>
       </c>
       <c r="C32">
-        <v>0.02474463578794637</v>
+        <v>0.04375650358091345</v>
       </c>
       <c r="D32">
-        <v>0.005039767053758567</v>
+        <v>-0.02398942880308105</v>
       </c>
       <c r="E32">
-        <v>0.1176084150086436</v>
+        <v>-0.05407739851956091</v>
       </c>
       <c r="F32">
-        <v>-0.008867508370101362</v>
+        <v>0.08201553652384144</v>
       </c>
       <c r="G32">
-        <v>-0.03876985163499937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.00964105097505031</v>
+      </c>
+      <c r="H32">
+        <v>0.05445693899078368</v>
+      </c>
+      <c r="I32">
+        <v>0.01849930139454374</v>
+      </c>
+      <c r="J32">
+        <v>0.002150489796825382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07020544512367467</v>
+        <v>0.05807514886535728</v>
       </c>
       <c r="C33">
-        <v>0.02955386841613917</v>
+        <v>0.04493112060558938</v>
       </c>
       <c r="D33">
-        <v>0.005081347664517992</v>
+        <v>-0.008054490601034435</v>
       </c>
       <c r="E33">
-        <v>0.06974682263191807</v>
+        <v>-0.06303682553447248</v>
       </c>
       <c r="F33">
-        <v>0.0414428906139207</v>
+        <v>0.05466286350760717</v>
       </c>
       <c r="G33">
-        <v>-0.01788205341294382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01712322982369114</v>
+      </c>
+      <c r="H33">
+        <v>0.05087581473868114</v>
+      </c>
+      <c r="I33">
+        <v>-0.01665003461321174</v>
+      </c>
+      <c r="J33">
+        <v>-0.0100079998029787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04723345111403566</v>
+        <v>0.04141616246882794</v>
       </c>
       <c r="C34">
-        <v>0.01238029951712974</v>
+        <v>0.02443305542310702</v>
       </c>
       <c r="D34">
-        <v>-0.007463908550040046</v>
+        <v>-0.009481064430349432</v>
       </c>
       <c r="E34">
-        <v>0.02586527813187104</v>
+        <v>-0.02666608106990303</v>
       </c>
       <c r="F34">
-        <v>-0.002790434789484514</v>
+        <v>0.02508959919369912</v>
       </c>
       <c r="G34">
-        <v>-0.003997182674095629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0001675646185608626</v>
+      </c>
+      <c r="H34">
+        <v>0.02038872265101279</v>
+      </c>
+      <c r="I34">
+        <v>-0.01381842299133913</v>
+      </c>
+      <c r="J34">
+        <v>0.0003172067564799519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.0129383260344822</v>
+        <v>0.01444326742289372</v>
       </c>
       <c r="C36">
-        <v>-0.01052449551176989</v>
+        <v>0.0007813763987694533</v>
       </c>
       <c r="D36">
-        <v>0.005239622841965349</v>
+        <v>-0.007960727211816346</v>
       </c>
       <c r="E36">
-        <v>0.0233532294917497</v>
+        <v>-0.01716998681651884</v>
       </c>
       <c r="F36">
-        <v>0.009192955348530204</v>
+        <v>0.02515068121401461</v>
       </c>
       <c r="G36">
-        <v>-0.009819480094324106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01472680101963587</v>
+      </c>
+      <c r="H36">
+        <v>0.03291240913434522</v>
+      </c>
+      <c r="I36">
+        <v>0.003851794382276039</v>
+      </c>
+      <c r="J36">
+        <v>0.01977897188725374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05601342709492784</v>
+        <v>0.03140459698187647</v>
       </c>
       <c r="C38">
-        <v>0.002616802070225983</v>
+        <v>0.008635439077523314</v>
       </c>
       <c r="D38">
-        <v>0.02288512296761555</v>
+        <v>-0.008946567315539033</v>
       </c>
       <c r="E38">
-        <v>0.03193456250730472</v>
+        <v>-0.02978230472153732</v>
       </c>
       <c r="F38">
-        <v>0.01071750973412826</v>
+        <v>0.04267859344792105</v>
       </c>
       <c r="G38">
-        <v>-0.03883585589045312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02325823717337886</v>
+      </c>
+      <c r="H38">
+        <v>0.01936260929193342</v>
+      </c>
+      <c r="I38">
+        <v>-0.002553720041698931</v>
+      </c>
+      <c r="J38">
+        <v>0.02921617131481328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07572091039798522</v>
+        <v>0.05838326038380688</v>
       </c>
       <c r="C39">
-        <v>0.01173714613841161</v>
+        <v>0.03513244689080772</v>
       </c>
       <c r="D39">
-        <v>-0.003746048469857889</v>
+        <v>-0.01762603289092661</v>
       </c>
       <c r="E39">
-        <v>0.04866859499060187</v>
+        <v>-0.05279898420404591</v>
       </c>
       <c r="F39">
-        <v>0.02293360748029092</v>
+        <v>0.03275866355415299</v>
       </c>
       <c r="G39">
-        <v>0.008087673199582356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009630489233528824</v>
+      </c>
+      <c r="H39">
+        <v>0.01687971144572076</v>
+      </c>
+      <c r="I39">
+        <v>-0.03336908642096674</v>
+      </c>
+      <c r="J39">
+        <v>-0.004071067934340566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07257523618324305</v>
+        <v>0.05675279539022612</v>
       </c>
       <c r="C40">
-        <v>0.02651381092857153</v>
+        <v>0.0338481701338758</v>
       </c>
       <c r="D40">
-        <v>-0.002673047499606789</v>
+        <v>-0.02562871374675649</v>
       </c>
       <c r="E40">
-        <v>0.1104280714122248</v>
+        <v>-0.0904504570640676</v>
       </c>
       <c r="F40">
-        <v>0.03656957288433584</v>
+        <v>0.06324546914535194</v>
       </c>
       <c r="G40">
-        <v>-0.09177364850116849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0005926189532456726</v>
+      </c>
+      <c r="H40">
+        <v>0.08181309418265426</v>
+      </c>
+      <c r="I40">
+        <v>0.00502865045892986</v>
+      </c>
+      <c r="J40">
+        <v>-0.04691382295475168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004271557248708287</v>
+        <v>0.001128976979990838</v>
       </c>
       <c r="C41">
-        <v>0.01137484700291703</v>
+        <v>0.01058291816039428</v>
       </c>
       <c r="D41">
-        <v>0.01546673585559127</v>
+        <v>-0.005685477578945958</v>
       </c>
       <c r="E41">
-        <v>0.01029278665352737</v>
+        <v>-0.008334697440728603</v>
       </c>
       <c r="F41">
-        <v>0.02126621569333198</v>
+        <v>0.01603914623375358</v>
       </c>
       <c r="G41">
-        <v>-0.02366794336265844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0273124148217004</v>
+      </c>
+      <c r="H41">
+        <v>0.04103162763798655</v>
+      </c>
+      <c r="I41">
+        <v>0.02331307401639422</v>
+      </c>
+      <c r="J41">
+        <v>0.002286955534264953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1403487305832654</v>
+        <v>0.2406065738166727</v>
       </c>
       <c r="C42">
-        <v>0.1926340499824668</v>
+        <v>0.1538716227222604</v>
       </c>
       <c r="D42">
-        <v>-0.9272919064905161</v>
+        <v>0.9079080969600124</v>
       </c>
       <c r="E42">
-        <v>-0.1055262244586131</v>
+        <v>-0.03434052003457189</v>
       </c>
       <c r="F42">
-        <v>-0.03088316273130371</v>
+        <v>-0.2456341244827828</v>
       </c>
       <c r="G42">
-        <v>0.118129940321252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.006285094487582347</v>
+      </c>
+      <c r="H42">
+        <v>0.005550604435013371</v>
+      </c>
+      <c r="I42">
+        <v>0.05912537225077993</v>
+      </c>
+      <c r="J42">
+        <v>-0.00528557388243123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008235270772828963</v>
+        <v>0.003433018048976609</v>
       </c>
       <c r="C43">
-        <v>0.01374471393783801</v>
+        <v>0.01314682321730442</v>
       </c>
       <c r="D43">
-        <v>0.01637638850354755</v>
+        <v>-0.006793472619264662</v>
       </c>
       <c r="E43">
-        <v>0.03145171026221703</v>
+        <v>-0.01785732362091562</v>
       </c>
       <c r="F43">
-        <v>-0.002951041296266557</v>
+        <v>0.02350724964412708</v>
       </c>
       <c r="G43">
-        <v>-0.01699452144954254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007853952929218614</v>
+      </c>
+      <c r="H43">
+        <v>0.0392108680611766</v>
+      </c>
+      <c r="I43">
+        <v>0.01395447160592555</v>
+      </c>
+      <c r="J43">
+        <v>-0.001776913218569935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04151499753670257</v>
+        <v>0.02749241044700291</v>
       </c>
       <c r="C44">
-        <v>0.0372825110890269</v>
+        <v>0.03258420210801372</v>
       </c>
       <c r="D44">
-        <v>0.0002929107565878722</v>
+        <v>-0.003985116653830768</v>
       </c>
       <c r="E44">
-        <v>0.1115823324338381</v>
+        <v>-0.08290995592917684</v>
       </c>
       <c r="F44">
-        <v>0.07541162935653985</v>
+        <v>0.09084907593081448</v>
       </c>
       <c r="G44">
-        <v>-0.1195737666139343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03176535611522052</v>
+      </c>
+      <c r="H44">
+        <v>0.1197573109086908</v>
+      </c>
+      <c r="I44">
+        <v>0.02180291597786121</v>
+      </c>
+      <c r="J44">
+        <v>-0.01284037254078007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02227816517227656</v>
+        <v>0.02163133791574164</v>
       </c>
       <c r="C46">
-        <v>0.01232524667700185</v>
+        <v>0.02490720044871707</v>
       </c>
       <c r="D46">
-        <v>0.02393417341034477</v>
+        <v>-0.02029739322922355</v>
       </c>
       <c r="E46">
-        <v>0.02271329371421648</v>
+        <v>-0.02967872679691594</v>
       </c>
       <c r="F46">
-        <v>0.02278030373740823</v>
+        <v>0.03718853991795178</v>
       </c>
       <c r="G46">
-        <v>-0.03655849596560896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01696119851414726</v>
+      </c>
+      <c r="H46">
+        <v>0.0628229755809955</v>
+      </c>
+      <c r="I46">
+        <v>0.01551716337615218</v>
+      </c>
+      <c r="J46">
+        <v>-0.002254292012282187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0813885428027407</v>
+        <v>0.08872979507344428</v>
       </c>
       <c r="C47">
-        <v>0.005252425484185828</v>
+        <v>0.01679690582311808</v>
       </c>
       <c r="D47">
-        <v>0.02196729257300423</v>
+        <v>-0.02520267766440677</v>
       </c>
       <c r="E47">
-        <v>-0.02380198252063824</v>
+        <v>0.003358458911849892</v>
       </c>
       <c r="F47">
-        <v>0.001336524730817216</v>
+        <v>-0.002994557360801285</v>
       </c>
       <c r="G47">
-        <v>-0.02898013605874032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03305970067757807</v>
+      </c>
+      <c r="H47">
+        <v>0.06538543828969466</v>
+      </c>
+      <c r="I47">
+        <v>0.02313968198646273</v>
+      </c>
+      <c r="J47">
+        <v>0.005395920246123522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01576340297446249</v>
+        <v>0.01652299753763642</v>
       </c>
       <c r="C48">
-        <v>0.01556848937258471</v>
+        <v>0.0187191216083931</v>
       </c>
       <c r="D48">
-        <v>0.01315067596968545</v>
+        <v>-0.009529540445702306</v>
       </c>
       <c r="E48">
-        <v>0.03460610561017871</v>
+        <v>-0.01843420392017623</v>
       </c>
       <c r="F48">
-        <v>0.0164723524345754</v>
+        <v>0.03184851235776188</v>
       </c>
       <c r="G48">
-        <v>-0.01011369019810886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008153290934565008</v>
+      </c>
+      <c r="H48">
+        <v>0.02463513686577311</v>
+      </c>
+      <c r="I48">
+        <v>0.01334596278084829</v>
+      </c>
+      <c r="J48">
+        <v>0.002333288212437654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07892759582300855</v>
+        <v>0.0823543923077012</v>
       </c>
       <c r="C50">
-        <v>0.01855107028832621</v>
+        <v>0.02810606665240083</v>
       </c>
       <c r="D50">
-        <v>0.02499533867556163</v>
+        <v>-0.02056203873952196</v>
       </c>
       <c r="E50">
-        <v>-0.02888031738790754</v>
+        <v>0.005110784920592393</v>
       </c>
       <c r="F50">
-        <v>-0.001243567453549957</v>
+        <v>0.003981381778454269</v>
       </c>
       <c r="G50">
-        <v>-0.01208469289791714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005028384452683041</v>
+      </c>
+      <c r="H50">
+        <v>0.05328727100750165</v>
+      </c>
+      <c r="I50">
+        <v>0.007021702358636776</v>
+      </c>
+      <c r="J50">
+        <v>0.05220185684570618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07143599254363626</v>
+        <v>0.04813489301279399</v>
       </c>
       <c r="C51">
-        <v>-0.02350385373876843</v>
+        <v>-0.004433730617065996</v>
       </c>
       <c r="D51">
-        <v>-0.00848288397850008</v>
+        <v>-0.01153348923679374</v>
       </c>
       <c r="E51">
-        <v>0.07282522377049029</v>
+        <v>-0.0812479834237313</v>
       </c>
       <c r="F51">
-        <v>0.05053540171692551</v>
+        <v>0.05433461909600784</v>
       </c>
       <c r="G51">
-        <v>-0.009826221685660703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04387504436606981</v>
+      </c>
+      <c r="H51">
+        <v>0.06476802905382746</v>
+      </c>
+      <c r="I51">
+        <v>0.0344736291507803</v>
+      </c>
+      <c r="J51">
+        <v>0.007734582631298713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1441548026060994</v>
+        <v>0.1278713154678761</v>
       </c>
       <c r="C53">
-        <v>0.006504595918487237</v>
+        <v>0.03368034620513056</v>
       </c>
       <c r="D53">
-        <v>0.04757445417491379</v>
+        <v>-0.04855480243117493</v>
       </c>
       <c r="E53">
-        <v>-0.03573068014217852</v>
+        <v>0.02485268610923532</v>
       </c>
       <c r="F53">
-        <v>-0.01170788764298131</v>
+        <v>-0.02070490205651294</v>
       </c>
       <c r="G53">
-        <v>0.002762661318363779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0233236953031964</v>
+      </c>
+      <c r="H53">
+        <v>0.006832221338491324</v>
+      </c>
+      <c r="I53">
+        <v>0.03047400349940303</v>
+      </c>
+      <c r="J53">
+        <v>-0.04088584974285435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02653217154784385</v>
+        <v>0.02139843489602797</v>
       </c>
       <c r="C54">
-        <v>-0.005217586798296984</v>
+        <v>0.00746047207740637</v>
       </c>
       <c r="D54">
-        <v>0.02453428241327345</v>
+        <v>-0.02481231224201091</v>
       </c>
       <c r="E54">
-        <v>0.03048774012217759</v>
+        <v>-0.01814051910989509</v>
       </c>
       <c r="F54">
-        <v>0.03831875292025264</v>
+        <v>0.04305235015144064</v>
       </c>
       <c r="G54">
-        <v>-0.0451936699187344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03361477914597599</v>
+      </c>
+      <c r="H54">
+        <v>0.05479970439765727</v>
+      </c>
+      <c r="I54">
+        <v>0.03319195990407094</v>
+      </c>
+      <c r="J54">
+        <v>0.02576745410295621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09726065852128436</v>
+        <v>0.1013068253476572</v>
       </c>
       <c r="C55">
-        <v>-0.004882443784587272</v>
+        <v>0.01808717068184118</v>
       </c>
       <c r="D55">
-        <v>0.04031777799200619</v>
+        <v>-0.03072127429266354</v>
       </c>
       <c r="E55">
-        <v>-0.0002561583997351452</v>
+        <v>0.03647099120767969</v>
       </c>
       <c r="F55">
-        <v>-0.02755331934506043</v>
+        <v>0.006870617123200223</v>
       </c>
       <c r="G55">
-        <v>0.00568914155871991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01111105928064861</v>
+      </c>
+      <c r="H55">
+        <v>0.02013964719221053</v>
+      </c>
+      <c r="I55">
+        <v>0.009758199115540217</v>
+      </c>
+      <c r="J55">
+        <v>-0.02957847543494615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1786260338852111</v>
+        <v>0.1693830849409393</v>
       </c>
       <c r="C56">
-        <v>-0.01993417098891926</v>
+        <v>0.01529956748321283</v>
       </c>
       <c r="D56">
-        <v>0.08047881490664902</v>
+        <v>-0.08444611975870496</v>
       </c>
       <c r="E56">
-        <v>-0.06452542618283967</v>
+        <v>0.06896059109182308</v>
       </c>
       <c r="F56">
-        <v>-0.06716315205383774</v>
+        <v>-0.03541956922713919</v>
       </c>
       <c r="G56">
-        <v>0.02568256145429628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02149731037017713</v>
+      </c>
+      <c r="H56">
+        <v>-0.03793025055493762</v>
+      </c>
+      <c r="I56">
+        <v>-0.00316426767103096</v>
+      </c>
+      <c r="J56">
+        <v>-0.06611323133078462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09084789367177915</v>
+        <v>0.06948345148633102</v>
       </c>
       <c r="C57">
-        <v>0.02302083814911729</v>
+        <v>0.02842137753122253</v>
       </c>
       <c r="D57">
-        <v>0.02456051680086563</v>
+        <v>-0.01406060037841474</v>
       </c>
       <c r="E57">
-        <v>0.06693735605571419</v>
+        <v>-0.05429266751955875</v>
       </c>
       <c r="F57">
-        <v>0.01932911381623677</v>
+        <v>0.04593466435055182</v>
       </c>
       <c r="G57">
-        <v>-0.04041632383926193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005719365393106052</v>
+      </c>
+      <c r="H57">
+        <v>0.0423845173470796</v>
+      </c>
+      <c r="I57">
+        <v>-0.01301531377290633</v>
+      </c>
+      <c r="J57">
+        <v>-0.03863936947161815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1642126855277324</v>
+        <v>0.197597479051299</v>
       </c>
       <c r="C58">
-        <v>-0.006901223509430577</v>
+        <v>0.04305143004383778</v>
       </c>
       <c r="D58">
-        <v>-0.05708001097844648</v>
+        <v>0.007731516979154125</v>
       </c>
       <c r="E58">
-        <v>0.1339176014278851</v>
+        <v>-0.1534961195206002</v>
       </c>
       <c r="F58">
-        <v>-0.07873364427031654</v>
+        <v>0.1151041079358328</v>
       </c>
       <c r="G58">
-        <v>-0.2562420249874794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1688575101892957</v>
+      </c>
+      <c r="H58">
+        <v>0.3244237196327702</v>
+      </c>
+      <c r="I58">
+        <v>0.03370409179019079</v>
+      </c>
+      <c r="J58">
+        <v>0.6352279586539958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.002781329872290521</v>
+        <v>0.02820255902114076</v>
       </c>
       <c r="C59">
-        <v>-0.2039715847958546</v>
+        <v>-0.1986409219355617</v>
       </c>
       <c r="D59">
-        <v>0.008031468661536827</v>
+        <v>-0.01276136887587216</v>
       </c>
       <c r="E59">
-        <v>0.0473480447395742</v>
+        <v>-0.0616980008820527</v>
       </c>
       <c r="F59">
-        <v>0.007038453819347379</v>
+        <v>0.02341897013585539</v>
       </c>
       <c r="G59">
-        <v>0.02525422633483383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001624723990424126</v>
+      </c>
+      <c r="H59">
+        <v>-0.02178493621335707</v>
+      </c>
+      <c r="I59">
+        <v>0.07146830621926901</v>
+      </c>
+      <c r="J59">
+        <v>0.03035259682211272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1874640842748821</v>
+        <v>0.1846832028279254</v>
       </c>
       <c r="C60">
-        <v>-0.118679092359389</v>
+        <v>-0.05548659275277541</v>
       </c>
       <c r="D60">
-        <v>0.01578969947682749</v>
+        <v>-0.03006919666983393</v>
       </c>
       <c r="E60">
-        <v>0.1731213662154283</v>
+        <v>-0.2021562899732595</v>
       </c>
       <c r="F60">
-        <v>0.05601619863718253</v>
+        <v>0.07823325000644879</v>
       </c>
       <c r="G60">
-        <v>0.1633701713199613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06329595583231112</v>
+      </c>
+      <c r="H60">
+        <v>-0.2447240619378312</v>
+      </c>
+      <c r="I60">
+        <v>-0.106864871127601</v>
+      </c>
+      <c r="J60">
+        <v>0.009112197249842923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04835118829119649</v>
+        <v>0.03852634642023654</v>
       </c>
       <c r="C61">
-        <v>0.0006193305489005384</v>
+        <v>0.01881489844893438</v>
       </c>
       <c r="D61">
-        <v>-0.01174724431820242</v>
+        <v>-0.002595734526760685</v>
       </c>
       <c r="E61">
-        <v>0.04989884060084236</v>
+        <v>-0.03896982595580249</v>
       </c>
       <c r="F61">
-        <v>0.02245608054304048</v>
+        <v>0.02757922995668829</v>
       </c>
       <c r="G61">
-        <v>0.02082148621086746</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.004237075737836046</v>
+      </c>
+      <c r="H61">
+        <v>0.002485972860091913</v>
+      </c>
+      <c r="I61">
+        <v>-0.0386179714647015</v>
+      </c>
+      <c r="J61">
+        <v>0.02075636415964923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04351315629975078</v>
+        <v>0.02928085884416334</v>
       </c>
       <c r="C63">
-        <v>-0.009473071343249602</v>
+        <v>0.01409885134383488</v>
       </c>
       <c r="D63">
-        <v>0.01407324560772264</v>
+        <v>-0.01386070304429183</v>
       </c>
       <c r="E63">
-        <v>0.03606286564661302</v>
+        <v>-0.02311818215693065</v>
       </c>
       <c r="F63">
-        <v>0.005857895730591387</v>
+        <v>0.02124689148569735</v>
       </c>
       <c r="G63">
-        <v>-0.01034791069243782</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006156864060512331</v>
+      </c>
+      <c r="H63">
+        <v>0.04465727291758205</v>
+      </c>
+      <c r="I63">
+        <v>0.03016656829434217</v>
+      </c>
+      <c r="J63">
+        <v>-0.02189665573530811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08853492160761289</v>
+        <v>0.0635332309761729</v>
       </c>
       <c r="C64">
-        <v>0.02818687012927905</v>
+        <v>0.03984517352252183</v>
       </c>
       <c r="D64">
-        <v>0.05515272944303352</v>
+        <v>-0.03649484202439437</v>
       </c>
       <c r="E64">
-        <v>0.05698582384024666</v>
+        <v>-0.01750073531172049</v>
       </c>
       <c r="F64">
-        <v>0.09731932289384521</v>
+        <v>0.07351154275345743</v>
       </c>
       <c r="G64">
-        <v>0.06274624278248558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06329419895620093</v>
+      </c>
+      <c r="H64">
+        <v>-0.01464962412594588</v>
+      </c>
+      <c r="I64">
+        <v>0.02448281923142591</v>
+      </c>
+      <c r="J64">
+        <v>-0.06642774037937615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01529045489365416</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003251917910937844</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0002280379806583319</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004846035227875915</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001630494189294032</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02020719451752971</v>
+      </c>
+      <c r="H65">
+        <v>-0.001383697103888137</v>
+      </c>
+      <c r="I65">
+        <v>-0.004672794246590402</v>
+      </c>
+      <c r="J65">
+        <v>0.0009978327439705429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09873130238627774</v>
+        <v>0.07112707259398623</v>
       </c>
       <c r="C66">
-        <v>0.01761502135559971</v>
+        <v>0.04856205382799288</v>
       </c>
       <c r="D66">
-        <v>0.03381576166891651</v>
+        <v>-0.04406625977400067</v>
       </c>
       <c r="E66">
-        <v>0.08540450698266795</v>
+        <v>-0.0668721767162565</v>
       </c>
       <c r="F66">
-        <v>0.04469483622795001</v>
+        <v>0.0440779739305981</v>
       </c>
       <c r="G66">
-        <v>0.01439032874951404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.008318913727171182</v>
+      </c>
+      <c r="H66">
+        <v>0.008911989024352382</v>
+      </c>
+      <c r="I66">
+        <v>-0.04829222074277494</v>
+      </c>
+      <c r="J66">
+        <v>-0.0320249414254045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06393187845645318</v>
+        <v>0.04184924339732021</v>
       </c>
       <c r="C67">
-        <v>-0.0199857368550203</v>
+        <v>-0.006979171466010946</v>
       </c>
       <c r="D67">
-        <v>0.01013609303684297</v>
+        <v>-0.007162995202760167</v>
       </c>
       <c r="E67">
-        <v>0.02514765400292275</v>
+        <v>-0.02805950923595428</v>
       </c>
       <c r="F67">
-        <v>0.007468294416021926</v>
+        <v>0.02814132058423676</v>
       </c>
       <c r="G67">
-        <v>-0.03380303234218625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02859144246443128</v>
+      </c>
+      <c r="H67">
+        <v>0.001974119611510157</v>
+      </c>
+      <c r="I67">
+        <v>-0.03734431630930176</v>
+      </c>
+      <c r="J67">
+        <v>0.01170206880287379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.003845646447674008</v>
+        <v>0.03532624352599553</v>
       </c>
       <c r="C68">
-        <v>-0.243816159743649</v>
+        <v>-0.2345511473076825</v>
       </c>
       <c r="D68">
-        <v>-0.009109383480683547</v>
+        <v>-0.003897921519209893</v>
       </c>
       <c r="E68">
-        <v>0.03163466463051418</v>
+        <v>-0.04880732172628101</v>
       </c>
       <c r="F68">
-        <v>-0.006030137645465372</v>
+        <v>0.01942281478333198</v>
       </c>
       <c r="G68">
-        <v>0.01416745406756452</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.007858602763409987</v>
+      </c>
+      <c r="H68">
+        <v>-0.02366121018954967</v>
+      </c>
+      <c r="I68">
+        <v>0.1667524954472553</v>
+      </c>
+      <c r="J68">
+        <v>0.02275346676256066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0665169990681137</v>
+        <v>0.06929414300678684</v>
       </c>
       <c r="C69">
-        <v>0.005121386661556319</v>
+        <v>0.01523516577192167</v>
       </c>
       <c r="D69">
-        <v>0.0284743432112259</v>
+        <v>-0.03102124374391766</v>
       </c>
       <c r="E69">
-        <v>-0.008601734550602681</v>
+        <v>-0.007768326660139463</v>
       </c>
       <c r="F69">
-        <v>-3.083198507494298e-05</v>
+        <v>-0.0009570065085048832</v>
       </c>
       <c r="G69">
-        <v>-0.01376182416267862</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02357200993425872</v>
+      </c>
+      <c r="H69">
+        <v>0.04608137733273112</v>
+      </c>
+      <c r="I69">
+        <v>0.0007005023262943254</v>
+      </c>
+      <c r="J69">
+        <v>0.005775618984152742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.002401328829347624</v>
+        <v>0.04092315961806369</v>
       </c>
       <c r="C71">
-        <v>-0.2610756783403272</v>
+        <v>-0.2483966226272251</v>
       </c>
       <c r="D71">
-        <v>-0.009687909470570036</v>
+        <v>0.01486084821409184</v>
       </c>
       <c r="E71">
-        <v>0.06108354870944597</v>
+        <v>-0.07974622786603654</v>
       </c>
       <c r="F71">
-        <v>0.01294325675433851</v>
+        <v>0.01540269874964072</v>
       </c>
       <c r="G71">
-        <v>0.09855177918289756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01566522329733289</v>
+      </c>
+      <c r="H71">
+        <v>-0.04082842258844582</v>
+      </c>
+      <c r="I71">
+        <v>0.1415678628835375</v>
+      </c>
+      <c r="J71">
+        <v>0.03358142889496493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.117209857686018</v>
+        <v>0.1190505101336188</v>
       </c>
       <c r="C72">
-        <v>-0.01997287488612352</v>
+        <v>0.004396919420337137</v>
       </c>
       <c r="D72">
-        <v>0.03028657039447584</v>
+        <v>-0.05774628317761974</v>
       </c>
       <c r="E72">
-        <v>0.08348595350702394</v>
+        <v>-0.05883052370341924</v>
       </c>
       <c r="F72">
-        <v>0.006912822022523821</v>
+        <v>0.06226612690401283</v>
       </c>
       <c r="G72">
-        <v>-0.04845957570054595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04074939383135368</v>
+      </c>
+      <c r="H72">
+        <v>-0.0009893030564720917</v>
+      </c>
+      <c r="I72">
+        <v>-0.01996010976416632</v>
+      </c>
+      <c r="J72">
+        <v>0.1302882566733912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2796842952092826</v>
+        <v>0.2708005085551241</v>
       </c>
       <c r="C73">
-        <v>-0.1965239706518381</v>
+        <v>-0.1060282112841193</v>
       </c>
       <c r="D73">
-        <v>-0.04457747341654621</v>
+        <v>0.002075624443442558</v>
       </c>
       <c r="E73">
-        <v>0.3024799810392856</v>
+        <v>-0.3254683861898014</v>
       </c>
       <c r="F73">
-        <v>0.079801349595906</v>
+        <v>0.1040881621758512</v>
       </c>
       <c r="G73">
-        <v>0.3738737065369038</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1286674217839068</v>
+      </c>
+      <c r="H73">
+        <v>-0.443134777395269</v>
+      </c>
+      <c r="I73">
+        <v>-0.3321103661507632</v>
+      </c>
+      <c r="J73">
+        <v>0.07622718830537581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1570405023203586</v>
+        <v>0.1518257341520004</v>
       </c>
       <c r="C74">
-        <v>-0.01044037731599276</v>
+        <v>0.01858047874200394</v>
       </c>
       <c r="D74">
-        <v>0.05051466709084765</v>
+        <v>-0.04678713960069867</v>
       </c>
       <c r="E74">
-        <v>-0.000243080720688597</v>
+        <v>0.0325434517259344</v>
       </c>
       <c r="F74">
-        <v>-0.04930445536884508</v>
+        <v>-0.02600799079956877</v>
       </c>
       <c r="G74">
-        <v>0.03161232987751569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01651707440613422</v>
+      </c>
+      <c r="H74">
+        <v>-0.01728395577863983</v>
+      </c>
+      <c r="I74">
+        <v>-0.01316955302993194</v>
+      </c>
+      <c r="J74">
+        <v>-0.09200249498416975</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2356380354490079</v>
+        <v>0.242314407168676</v>
       </c>
       <c r="C75">
-        <v>-0.01592151999251848</v>
+        <v>0.01870609118405625</v>
       </c>
       <c r="D75">
-        <v>0.06494918346541804</v>
+        <v>-0.1013496419622474</v>
       </c>
       <c r="E75">
-        <v>-0.1187519816397022</v>
+        <v>0.09774683673315565</v>
       </c>
       <c r="F75">
-        <v>-0.06843710812939835</v>
+        <v>-0.09016177423015108</v>
       </c>
       <c r="G75">
-        <v>0.02079854955238018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006857675320480066</v>
+      </c>
+      <c r="H75">
+        <v>-0.01539312835692791</v>
+      </c>
+      <c r="I75">
+        <v>0.05543598713041</v>
+      </c>
+      <c r="J75">
+        <v>-0.1141545784578836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2419916799600501</v>
+        <v>0.2657229458733764</v>
       </c>
       <c r="C76">
-        <v>-0.02098155052201547</v>
+        <v>0.01298982737709114</v>
       </c>
       <c r="D76">
-        <v>0.1089580213007048</v>
+        <v>-0.1280957246433287</v>
       </c>
       <c r="E76">
-        <v>-0.1038046729383217</v>
+        <v>0.1440398046825743</v>
       </c>
       <c r="F76">
-        <v>-0.08327136478714241</v>
+        <v>-0.09018465502808397</v>
       </c>
       <c r="G76">
-        <v>0.04012681328520611</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04649633920466489</v>
+      </c>
+      <c r="H76">
+        <v>-0.03130033217392292</v>
+      </c>
+      <c r="I76">
+        <v>-0.02806921338966351</v>
+      </c>
+      <c r="J76">
+        <v>-0.1269438395618167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1281686176975353</v>
+        <v>0.1347119915965446</v>
       </c>
       <c r="C77">
-        <v>0.01797885025003742</v>
+        <v>0.05082671689018903</v>
       </c>
       <c r="D77">
-        <v>-0.06325707110980593</v>
+        <v>0.04329381415419853</v>
       </c>
       <c r="E77">
-        <v>0.1645967169268477</v>
+        <v>-0.1167353466351907</v>
       </c>
       <c r="F77">
-        <v>0.01930124194779487</v>
+        <v>0.1265488907780861</v>
       </c>
       <c r="G77">
-        <v>-0.1575819085707231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01895770178169114</v>
+      </c>
+      <c r="H77">
+        <v>0.1912229569397218</v>
+      </c>
+      <c r="I77">
+        <v>0.1607789640627601</v>
+      </c>
+      <c r="J77">
+        <v>-0.112827839899398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09322122147876921</v>
+        <v>0.08995959722214841</v>
       </c>
       <c r="C78">
-        <v>0.03088677407442315</v>
+        <v>0.05829076500206577</v>
       </c>
       <c r="D78">
-        <v>-0.02071987048265637</v>
+        <v>-0.0006719113240062379</v>
       </c>
       <c r="E78">
-        <v>0.06427430274347622</v>
+        <v>-0.05160446224780248</v>
       </c>
       <c r="F78">
-        <v>0.01363400557981279</v>
+        <v>0.07089154273996692</v>
       </c>
       <c r="G78">
-        <v>0.005324157540075315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.005341291603229921</v>
+      </c>
+      <c r="H78">
+        <v>0.02667695846445096</v>
+      </c>
+      <c r="I78">
+        <v>0.03075737531297461</v>
+      </c>
+      <c r="J78">
+        <v>-0.01593885233667489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05969366957772801</v>
+        <v>0.1142213994180293</v>
       </c>
       <c r="C80">
-        <v>0.004412498315803661</v>
+        <v>-0.1205524444910483</v>
       </c>
       <c r="D80">
-        <v>-0.003368080707440551</v>
+        <v>0.2175882673427371</v>
       </c>
       <c r="E80">
-        <v>0.02922948134428139</v>
+        <v>0.6231706956538566</v>
       </c>
       <c r="F80">
-        <v>-0.02988028062653445</v>
+        <v>0.7012095339058529</v>
       </c>
       <c r="G80">
-        <v>-0.4353568141628252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01329596672457994</v>
+      </c>
+      <c r="H80">
+        <v>-0.1337803088190281</v>
+      </c>
+      <c r="I80">
+        <v>-0.06631098836557511</v>
+      </c>
+      <c r="J80">
+        <v>0.08261722950089491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1612394343198141</v>
+        <v>0.1762480556775041</v>
       </c>
       <c r="C81">
-        <v>-0.01514738953283879</v>
+        <v>0.003464207868657883</v>
       </c>
       <c r="D81">
-        <v>0.05556099220561619</v>
+        <v>-0.0837561450048535</v>
       </c>
       <c r="E81">
-        <v>-0.1191963782833048</v>
+        <v>0.1124217543683397</v>
       </c>
       <c r="F81">
-        <v>-0.09489368786402637</v>
+        <v>-0.09262280273541497</v>
       </c>
       <c r="G81">
-        <v>0.01509922096090676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0222907538825764</v>
+      </c>
+      <c r="H81">
+        <v>-0.007055703995339706</v>
+      </c>
+      <c r="I81">
+        <v>0.02886774772197443</v>
+      </c>
+      <c r="J81">
+        <v>-0.06269658628858961</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.0811291788035885</v>
+        <v>0.0640240492427946</v>
       </c>
       <c r="C83">
-        <v>0.03532660779451371</v>
+        <v>0.04053200330868081</v>
       </c>
       <c r="D83">
-        <v>-0.09008429186742375</v>
+        <v>0.03866585154457247</v>
       </c>
       <c r="E83">
-        <v>0.02872620901603716</v>
+        <v>-0.05583615467799174</v>
       </c>
       <c r="F83">
-        <v>0.0605923266418692</v>
+        <v>0.02095487822386857</v>
       </c>
       <c r="G83">
-        <v>-0.03494726425484431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04477644743737789</v>
+      </c>
+      <c r="H83">
+        <v>0.04201611024160617</v>
+      </c>
+      <c r="I83">
+        <v>0.0245136432193943</v>
+      </c>
+      <c r="J83">
+        <v>-0.08346839232790121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2379186201132077</v>
+        <v>0.2545157424470024</v>
       </c>
       <c r="C85">
-        <v>0.04658881029154192</v>
+        <v>0.05219299691833561</v>
       </c>
       <c r="D85">
-        <v>0.0614881892846289</v>
+        <v>-0.08797513536413402</v>
       </c>
       <c r="E85">
-        <v>-0.1328026908177301</v>
+        <v>0.1387080867900581</v>
       </c>
       <c r="F85">
-        <v>-0.06322707335019807</v>
+        <v>-0.08674708297324139</v>
       </c>
       <c r="G85">
-        <v>-0.009217531002118392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.002141453057298892</v>
+      </c>
+      <c r="H85">
+        <v>0.02103793661549122</v>
+      </c>
+      <c r="I85">
+        <v>0.03801341700637835</v>
+      </c>
+      <c r="J85">
+        <v>-0.1338212933974594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04782944676455007</v>
+        <v>0.02907442185470163</v>
       </c>
       <c r="C86">
-        <v>0.03722811926519706</v>
+        <v>0.044159010843475</v>
       </c>
       <c r="D86">
-        <v>0.007164887208035861</v>
+        <v>-0.005931271159533013</v>
       </c>
       <c r="E86">
-        <v>0.04750901867421563</v>
+        <v>-0.03069141760513419</v>
       </c>
       <c r="F86">
-        <v>0.001206498975989525</v>
+        <v>0.06006962906645686</v>
       </c>
       <c r="G86">
-        <v>-0.0290981010138174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.003990432316383801</v>
+      </c>
+      <c r="H86">
+        <v>0.0547534631023054</v>
+      </c>
+      <c r="I86">
+        <v>0.05524933653937357</v>
+      </c>
+      <c r="J86">
+        <v>-0.00486187305076338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02475159018583338</v>
+        <v>0.03579866945418828</v>
       </c>
       <c r="C87">
-        <v>-0.05414699387202829</v>
+        <v>-0.02234122389005744</v>
       </c>
       <c r="D87">
-        <v>0.01456662641017967</v>
+        <v>-0.005488323295293553</v>
       </c>
       <c r="E87">
-        <v>0.06148819341622225</v>
+        <v>-0.0740412600352857</v>
       </c>
       <c r="F87">
-        <v>0.05523736127610998</v>
+        <v>0.06040836440641161</v>
       </c>
       <c r="G87">
-        <v>0.130893698055396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02187019741363649</v>
+      </c>
+      <c r="H87">
+        <v>-0.01013471462302511</v>
+      </c>
+      <c r="I87">
+        <v>-0.01012635150238035</v>
+      </c>
+      <c r="J87">
+        <v>0.07856695827649428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03760860667787416</v>
+        <v>0.02454557703568308</v>
       </c>
       <c r="C88">
-        <v>0.02428883709820514</v>
+        <v>0.01622308133372238</v>
       </c>
       <c r="D88">
-        <v>0.009488387167105745</v>
+        <v>-0.01190714059638367</v>
       </c>
       <c r="E88">
-        <v>-0.005234314579432738</v>
+        <v>0.02124596918755118</v>
       </c>
       <c r="F88">
-        <v>-0.01236543051333597</v>
+        <v>0.01802015450948019</v>
       </c>
       <c r="G88">
-        <v>-0.04221612021614146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02548216013887761</v>
+      </c>
+      <c r="H88">
+        <v>0.04230816440483254</v>
+      </c>
+      <c r="I88">
+        <v>-0.02226754459000478</v>
+      </c>
+      <c r="J88">
+        <v>0.01810427772850152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01679844660788199</v>
+        <v>0.05509570326827661</v>
       </c>
       <c r="C89">
-        <v>-0.42563970569462</v>
+        <v>-0.3948405846627836</v>
       </c>
       <c r="D89">
-        <v>-0.1047545066955213</v>
+        <v>0.03839220858106659</v>
       </c>
       <c r="E89">
-        <v>-0.03377484411205386</v>
+        <v>-0.07513644953448471</v>
       </c>
       <c r="F89">
-        <v>0.02230675319232323</v>
+        <v>-0.02820243544166707</v>
       </c>
       <c r="G89">
-        <v>-0.04635004693068032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07569914114061979</v>
+      </c>
+      <c r="H89">
+        <v>0.0173894272705125</v>
+      </c>
+      <c r="I89">
+        <v>0.2984497315613813</v>
+      </c>
+      <c r="J89">
+        <v>-0.03227787524962863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01378497884697917</v>
+        <v>0.03494237440696247</v>
       </c>
       <c r="C90">
-        <v>-0.3074255577684917</v>
+        <v>-0.334316375592456</v>
       </c>
       <c r="D90">
-        <v>-0.03006311330835709</v>
+        <v>0.02304309069595808</v>
       </c>
       <c r="E90">
-        <v>0.02690416046574374</v>
+        <v>-0.04192244916966163</v>
       </c>
       <c r="F90">
-        <v>0.006800420120938795</v>
+        <v>0.01420105156527889</v>
       </c>
       <c r="G90">
-        <v>0.06324804089723456</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02179937591337424</v>
+      </c>
+      <c r="H90">
+        <v>-0.02784915784354602</v>
+      </c>
+      <c r="I90">
+        <v>0.2112948455268915</v>
+      </c>
+      <c r="J90">
+        <v>0.01421959345850301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3020291059430768</v>
+        <v>0.3150097173712744</v>
       </c>
       <c r="C91">
-        <v>0.01470012175775274</v>
+        <v>0.03766702280548062</v>
       </c>
       <c r="D91">
-        <v>0.07403560138879113</v>
+        <v>-0.1013803874624942</v>
       </c>
       <c r="E91">
-        <v>-0.265532085995803</v>
+        <v>0.2206372261525286</v>
       </c>
       <c r="F91">
-        <v>-0.1703723309367165</v>
+        <v>-0.1866242458007171</v>
       </c>
       <c r="G91">
-        <v>-0.08618485762640411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03509861511387297</v>
+      </c>
+      <c r="H91">
+        <v>-0.01730808469589491</v>
+      </c>
+      <c r="I91">
+        <v>0.0762392740503936</v>
+      </c>
+      <c r="J91">
+        <v>-0.2554023740374842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03449109118238059</v>
+        <v>0.0733833933822277</v>
       </c>
       <c r="C92">
-        <v>-0.4360597390354055</v>
+        <v>-0.4630354358208782</v>
       </c>
       <c r="D92">
-        <v>-0.1909485075801326</v>
+        <v>0.06582460536108678</v>
       </c>
       <c r="E92">
-        <v>-0.1113257944707427</v>
+        <v>0.07996688359718451</v>
       </c>
       <c r="F92">
-        <v>-0.1077568046846902</v>
+        <v>-0.1313085981929667</v>
       </c>
       <c r="G92">
-        <v>-0.4461390345822981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0362331386744718</v>
+      </c>
+      <c r="H92">
+        <v>0.5113480430269218</v>
+      </c>
+      <c r="I92">
+        <v>-0.670607828099315</v>
+      </c>
+      <c r="J92">
+        <v>-0.1204314116885582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02955161549147248</v>
+        <v>0.03495597957637894</v>
       </c>
       <c r="C93">
-        <v>-0.3687601977258785</v>
+        <v>-0.4047360051707354</v>
       </c>
       <c r="D93">
-        <v>-0.07340833193420938</v>
+        <v>0.05013964746222178</v>
       </c>
       <c r="E93">
-        <v>-0.04985327414552533</v>
+        <v>-0.02948466688514582</v>
       </c>
       <c r="F93">
-        <v>-0.01960869811125274</v>
+        <v>-0.05144549895779056</v>
       </c>
       <c r="G93">
-        <v>-0.02316169704200807</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03891760204262117</v>
+      </c>
+      <c r="H93">
+        <v>-0.03842135855756166</v>
+      </c>
+      <c r="I93">
+        <v>0.1958632158545326</v>
+      </c>
+      <c r="J93">
+        <v>-0.01346000778100764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2899769733995509</v>
+        <v>0.3169604641053718</v>
       </c>
       <c r="C94">
-        <v>-0.03725588750520453</v>
+        <v>-0.005170467833259588</v>
       </c>
       <c r="D94">
-        <v>0.04669695359688203</v>
+        <v>-0.15021887705835</v>
       </c>
       <c r="E94">
-        <v>-0.3763741690243321</v>
+        <v>0.2479097894005299</v>
       </c>
       <c r="F94">
-        <v>-0.4286963886796835</v>
+        <v>-0.2817424143313974</v>
       </c>
       <c r="G94">
-        <v>0.07047525772647971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1631092020226801</v>
+      </c>
+      <c r="H94">
+        <v>0.07536790867263402</v>
+      </c>
+      <c r="I94">
+        <v>0.1446314445770181</v>
+      </c>
+      <c r="J94">
+        <v>0.4042974010071428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2010454306578621</v>
+        <v>0.139629066534778</v>
       </c>
       <c r="C95">
-        <v>-0.03813697826059317</v>
+        <v>0.05853743502284339</v>
       </c>
       <c r="D95">
-        <v>0.01504893084867977</v>
+        <v>-0.04607943941915237</v>
       </c>
       <c r="E95">
-        <v>-0.4526227130853863</v>
+        <v>-0.009425467071063728</v>
       </c>
       <c r="F95">
-        <v>0.8176757523944764</v>
+        <v>-0.05591796470848691</v>
       </c>
       <c r="G95">
-        <v>-0.08678409532953998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9328059778919685</v>
+      </c>
+      <c r="H95">
+        <v>-0.08261817294870333</v>
+      </c>
+      <c r="I95">
+        <v>-0.06700033079592997</v>
+      </c>
+      <c r="J95">
+        <v>0.2051428863575408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.218333790831742</v>
+        <v>0.2084209273157506</v>
       </c>
       <c r="C98">
-        <v>-0.1351322059407274</v>
+        <v>-0.07080289711782328</v>
       </c>
       <c r="D98">
-        <v>-0.03926623394683926</v>
+        <v>0.01129852689079881</v>
       </c>
       <c r="E98">
-        <v>0.1079548073256034</v>
+        <v>-0.1894482345374182</v>
       </c>
       <c r="F98">
-        <v>0.03839326873267134</v>
+        <v>0.02431603618834202</v>
       </c>
       <c r="G98">
-        <v>0.2520865824578584</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06841127874832828</v>
+      </c>
+      <c r="H98">
+        <v>-0.3091669100922531</v>
+      </c>
+      <c r="I98">
+        <v>-0.20122810047095</v>
+      </c>
+      <c r="J98">
+        <v>-0.00465546566213388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02097046181902382</v>
+        <v>0.01285952726245263</v>
       </c>
       <c r="C101">
-        <v>0.01717497992019602</v>
+        <v>0.02894023897396004</v>
       </c>
       <c r="D101">
-        <v>0.02360612746603701</v>
+        <v>-0.02847141611885968</v>
       </c>
       <c r="E101">
-        <v>0.03044872434898598</v>
+        <v>-0.0326360888128435</v>
       </c>
       <c r="F101">
-        <v>0.008623505165960773</v>
+        <v>0.05967936501409696</v>
       </c>
       <c r="G101">
-        <v>-0.03511197792544451</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.005536269470859387</v>
+      </c>
+      <c r="H101">
+        <v>0.1162175993625466</v>
+      </c>
+      <c r="I101">
+        <v>-0.006265567751959034</v>
+      </c>
+      <c r="J101">
+        <v>0.1656119455727125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1181240621947423</v>
+        <v>0.1208691771926843</v>
       </c>
       <c r="C102">
-        <v>0.006534573492850733</v>
+        <v>0.02506301483172976</v>
       </c>
       <c r="D102">
-        <v>0.04429063281219555</v>
+        <v>-0.05229812231531342</v>
       </c>
       <c r="E102">
-        <v>-0.08198479995182431</v>
+        <v>0.08064765365765496</v>
       </c>
       <c r="F102">
-        <v>-0.004250808019616959</v>
+        <v>-0.04403601700885335</v>
       </c>
       <c r="G102">
-        <v>-0.002951308689950012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02778619548869384</v>
+      </c>
+      <c r="H102">
+        <v>-0.01206867816923903</v>
+      </c>
+      <c r="I102">
+        <v>0.03588630529652476</v>
+      </c>
+      <c r="J102">
+        <v>-0.04881097243213223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01733771595498261</v>
+        <v>0.03069258070752129</v>
       </c>
       <c r="C103">
-        <v>-0.002045688661322649</v>
+        <v>0.004546786432425311</v>
       </c>
       <c r="D103">
-        <v>0.01811496261671408</v>
+        <v>-0.02040873603934278</v>
       </c>
       <c r="E103">
-        <v>-0.02773844708247896</v>
+        <v>0.03008191614503399</v>
       </c>
       <c r="F103">
-        <v>-0.01624564858851617</v>
+        <v>-0.001490217456649069</v>
       </c>
       <c r="G103">
-        <v>0.01021537130499864</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01407055963626566</v>
+      </c>
+      <c r="H103">
+        <v>0.01145298776868013</v>
+      </c>
+      <c r="I103">
+        <v>0.02939551962236435</v>
+      </c>
+      <c r="J103">
+        <v>-0.008507676092889448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
